--- a/Timing.xlsx
+++ b/Timing.xlsx
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,6 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,17 +604,17 @@
       </c>
       <c r="B2" s="6">
         <f>E12</f>
-        <v>0</v>
+        <v>2.3297366666666668E-4</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
         <f>E22</f>
-        <v>0</v>
+        <v>2.7834933333333332E-4</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6">
         <f>E22</f>
-        <v>0</v>
+        <v>2.7834933333333332E-4</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -624,17 +625,17 @@
       </c>
       <c r="B3" s="6">
         <f>E13</f>
-        <v>0</v>
+        <v>2.8850766666666666E-4</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6">
         <f>E23</f>
-        <v>0</v>
+        <v>3.6706833333333334E-4</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6">
         <f>E23</f>
-        <v>0</v>
+        <v>3.6706833333333334E-4</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -645,7 +646,7 @@
       </c>
       <c r="B4" s="6">
         <f>E14</f>
-        <v>0</v>
+        <v>9.2557333333333336E-5</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
@@ -666,17 +667,17 @@
       </c>
       <c r="B5" s="6">
         <f>E15</f>
-        <v>0</v>
+        <v>3.2237033333333337E-4</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
         <f>E25</f>
-        <v>0</v>
+        <v>3.5329799999999999E-4</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
         <f>E25</f>
-        <v>0</v>
+        <v>3.5329799999999999E-4</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -732,50 +733,84 @@
       <c r="A12" s="5">
         <v>1000000</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="6">
+        <v>2.5261400000000002E-4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2.1739700000000001E-4</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2.2891E-4</v>
+      </c>
+      <c r="E12" s="7">
+        <f>(B12+C12+D12)/3</f>
+        <v>2.3297366666666668E-4</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f>A12*2</f>
         <v>2000000</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="6">
+        <v>2.3839099999999999E-4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3.5691E-4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.7022199999999998E-4</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:E16" si="1">(B13+C13+D13)/3</f>
+        <v>2.8850766666666666E-4</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f>A13*2</f>
         <v>4000000</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6">
+        <v>2.7767200000000002E-4</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7">
+        <f t="shared" si="1"/>
+        <v>9.2557333333333336E-5</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
-        <f>A14*2</f>
-        <v>8000000</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="B15" s="17">
+        <v>3.1492100000000002E-4</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3.0611599999999999E-4</v>
+      </c>
+      <c r="D15" s="17">
+        <v>3.4607399999999998E-4</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2237033333333337E-4</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <f>A15*2</f>
-        <v>16000000</v>
+        <v>20000000</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
@@ -807,50 +842,82 @@
       <c r="A22" s="5">
         <v>1000000</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="6">
+        <v>3.5420100000000001E-4</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.6524899999999999E-4</v>
+      </c>
+      <c r="D22" s="17">
+        <v>3.15598E-4</v>
+      </c>
+      <c r="E22" s="7">
+        <f>(B22+C22+D22)/3</f>
+        <v>2.7834933333333332E-4</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22*2</f>
         <v>2000000</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="6">
+        <v>3.44719E-4</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3.98222E-4</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3.5826400000000001E-4</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" ref="E23:E26" si="2">(B23+C23+D23)/3</f>
+        <v>3.6706833333333334E-4</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
-        <f t="shared" ref="A24:A26" si="1">A23*2</f>
+        <f t="shared" ref="A24:A26" si="3">A23*2</f>
         <v>4000000</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
-        <f t="shared" si="1"/>
-        <v>8000000</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2.2620100000000001E-4</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3.9280400000000002E-4</v>
+      </c>
+      <c r="D25" s="17">
+        <v>4.4088900000000003E-4</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="2"/>
+        <v>3.5329799999999999E-4</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
-        <f t="shared" si="1"/>
-        <v>16000000</v>
+        <f t="shared" si="3"/>
+        <v>20000000</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
@@ -882,50 +949,82 @@
       <c r="A32" s="5">
         <v>1000000</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
+      <c r="B32" s="6">
+        <v>1.17841E-4</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1.02265E-4</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1.2190500000000001E-4</v>
+      </c>
+      <c r="E32" s="7">
+        <f>(B32+C32+D32)/3</f>
+        <v>1.1400366666666668E-4</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <f>A32*2</f>
         <v>2000000</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
+      <c r="B33" s="6">
+        <v>1.32063E-4</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.4019E-4</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1.4696300000000001E-4</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" ref="E33:E36" si="4">(B33+C33+D33)/3</f>
+        <v>1.3973866666666665E-4</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <f t="shared" ref="A34:A36" si="2">A33*2</f>
+        <f t="shared" ref="A34:A36" si="5">A33*2</f>
         <v>4000000</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
-        <f t="shared" si="2"/>
-        <v>8000000</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="B35" s="6">
+        <v>2.35682E-4</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1.53058E-4</v>
+      </c>
+      <c r="D35" s="17">
+        <v>2.32296E-4</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="4"/>
+        <v>2.0701199999999999E-4</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
-        <f t="shared" si="2"/>
-        <v>16000000</v>
+        <f t="shared" si="5"/>
+        <v>20000000</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
+      <c r="E36" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Timing.xlsx
+++ b/Timing.xlsx
@@ -57,6 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,37 +107,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -211,45 +183,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,463 +549,452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1000000</v>
       </c>
-      <c r="B2" s="6">
-        <f>E12</f>
+      <c r="B2" s="13">
+        <f>E11</f>
         <v>2.3297366666666668E-4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <f>E22</f>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
+        <f>E20</f>
         <v>2.7834933333333332E-4</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
-        <f>E22</f>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13">
+        <f>E20</f>
         <v>2.7834933333333332E-4</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <f>A2*2</f>
         <v>2000000</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="13">
+        <f>E12</f>
+        <v>2.8850766666666666E-4</v>
+      </c>
+      <c r="C3" s="13">
+        <f>B3/B2</f>
+        <v>1.2383702879152292</v>
+      </c>
+      <c r="D3" s="13">
+        <f>E21</f>
+        <v>3.6706833333333334E-4</v>
+      </c>
+      <c r="E3" s="13">
+        <f>D3/D2</f>
+        <v>1.318732575851927</v>
+      </c>
+      <c r="F3" s="13">
+        <f>E21</f>
+        <v>3.6706833333333334E-4</v>
+      </c>
+      <c r="G3" s="14">
+        <f>F3/F2</f>
+        <v>1.318732575851927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A5" si="0">A3*2</f>
+        <v>4000000</v>
+      </c>
+      <c r="B4" s="13">
         <f>E13</f>
-        <v>2.8850766666666666E-4</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
-        <f>E23</f>
-        <v>3.6706833333333334E-4</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
-        <f>E23</f>
-        <v>3.6706833333333334E-4</v>
-      </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <f t="shared" ref="A4:A14" si="0">A3*2</f>
-        <v>4000000</v>
-      </c>
-      <c r="B4" s="6">
-        <f>E14</f>
-        <v>9.2557333333333336E-5</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
-        <f>E24</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <f>E24</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>3.1266299999999997E-4</v>
+      </c>
+      <c r="C4" s="13">
+        <f t="shared" ref="C4:E5" si="1">B4/B3</f>
+        <v>1.0837251003150696</v>
+      </c>
+      <c r="D4" s="13">
+        <f>E22</f>
+        <v>3.8309699999999999E-4</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0436667105579795</v>
+      </c>
+      <c r="F4" s="13">
+        <f>E22</f>
+        <v>3.8309699999999999E-4</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" ref="G4" si="2">F4/F3</f>
+        <v>1.0436667105579795</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
-      <c r="B5" s="6">
-        <f>E15</f>
-        <v>3.2237033333333337E-4</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
-        <f>E25</f>
-        <v>3.5329799999999999E-4</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <f>E25</f>
-        <v>3.5329799999999999E-4</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <f t="shared" si="0"/>
-        <v>16000000</v>
-      </c>
-      <c r="B6" s="9">
-        <f>E16</f>
+      <c r="B5" s="15">
+        <f>E14</f>
+        <v>3.14469E-4</v>
+      </c>
+      <c r="C5" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0057761871407875</v>
+      </c>
+      <c r="D5" s="15">
+        <f>E23</f>
+        <v>4.2734366666666665E-4</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1154972935488052</v>
+      </c>
+      <c r="F5" s="15">
+        <f>E23</f>
+        <v>4.2734366666666665E-4</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" ref="G5" si="3">F5/F4</f>
+        <v>1.1154972935488052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
-        <f>E26</f>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2.5261400000000002E-4</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2.1739700000000001E-4</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2.2891E-4</v>
+      </c>
+      <c r="E11" s="14">
+        <f>(B11+C11+D11)/3</f>
+        <v>2.3297366666666668E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f>A11*2</f>
+        <v>2000000</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2.3839099999999999E-4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3.5691E-4</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2.7022199999999998E-4</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" ref="E12:E14" si="4">(B12+C12+D12)/3</f>
+        <v>2.8850766666666666E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f>A12*2</f>
+        <v>4000000</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2.7767200000000002E-4</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2.6819000000000002E-4</v>
+      </c>
+      <c r="D13" s="13">
+        <v>3.9212699999999998E-4</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="4"/>
+        <v>3.1266299999999997E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <f>A13*2</f>
+        <v>8000000</v>
+      </c>
+      <c r="B14" s="18">
+        <v>4.0905800000000001E-4</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2.5261400000000002E-4</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2.8173500000000003E-4</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="4"/>
+        <v>3.14469E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <f>E26</f>
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B20" s="13">
+        <v>3.5420100000000001E-4</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1.6524899999999999E-4</v>
+      </c>
+      <c r="D20" s="17">
+        <v>3.15598E-4</v>
+      </c>
+      <c r="E20" s="14">
+        <f>(B20+C20+D20)/3</f>
+        <v>2.7834933333333332E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f>A20*2</f>
+        <v>2000000</v>
+      </c>
+      <c r="B21" s="13">
+        <v>3.44719E-4</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3.98222E-4</v>
+      </c>
+      <c r="D21" s="13">
+        <v>3.5826400000000001E-4</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" ref="E21:E23" si="5">(B21+C21+D21)/3</f>
+        <v>3.6706833333333334E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" ref="A22" si="6">A21*2</f>
+        <v>4000000</v>
+      </c>
+      <c r="B22" s="13">
+        <v>4.0431700000000001E-4</v>
+      </c>
+      <c r="C22" s="13">
+        <v>3.5352400000000003E-4</v>
+      </c>
+      <c r="D22" s="13">
+        <v>3.9145E-4</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="5"/>
+        <v>3.8309699999999999E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <f>A22*2</f>
+        <v>8000000</v>
+      </c>
+      <c r="B23" s="15">
+        <v>3.81968E-4</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3.60973E-4</v>
+      </c>
+      <c r="D23" s="18">
+        <v>5.3908999999999999E-4</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="5"/>
+        <v>4.2734366666666665E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="B28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E28" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>1000000</v>
       </c>
-      <c r="B12" s="6">
-        <v>2.5261400000000002E-4</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2.1739700000000001E-4</v>
-      </c>
-      <c r="D12" s="17">
-        <v>2.2891E-4</v>
-      </c>
-      <c r="E12" s="7">
-        <f>(B12+C12+D12)/3</f>
-        <v>2.3297366666666668E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <f>A12*2</f>
+      <c r="B29" s="13">
+        <v>1.17841E-4</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1.02265E-4</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1.2190500000000001E-4</v>
+      </c>
+      <c r="E29" s="14">
+        <f>(B29+C29+D29)/3</f>
+        <v>1.1400366666666668E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f>A29*2</f>
         <v>2000000</v>
       </c>
-      <c r="B13" s="6">
-        <v>2.3839099999999999E-4</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3.5691E-4</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2.7022199999999998E-4</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" ref="E13:E16" si="1">(B13+C13+D13)/3</f>
-        <v>2.8850766666666666E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <f>A13*2</f>
+      <c r="B30" s="13">
+        <v>1.32063E-4</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1.4019E-4</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1.4696300000000001E-4</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" ref="E30:E32" si="7">(B30+C30+D30)/3</f>
+        <v>1.3973866666666665E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f t="shared" ref="A31" si="8">A30*2</f>
         <v>4000000</v>
       </c>
-      <c r="B14" s="6">
-        <v>2.7767200000000002E-4</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7">
-        <f t="shared" si="1"/>
-        <v>9.2557333333333336E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="B15" s="17">
-        <v>3.1492100000000002E-4</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3.0611599999999999E-4</v>
-      </c>
-      <c r="D15" s="17">
-        <v>3.4607399999999998E-4</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" si="1"/>
-        <v>3.2237033333333337E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <f>A15*2</f>
-        <v>20000000</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="B22" s="6">
-        <v>3.5420100000000001E-4</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1.6524899999999999E-4</v>
-      </c>
-      <c r="D22" s="17">
-        <v>3.15598E-4</v>
-      </c>
-      <c r="E22" s="7">
-        <f>(B22+C22+D22)/3</f>
-        <v>2.7834933333333332E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <f>A22*2</f>
-        <v>2000000</v>
-      </c>
-      <c r="B23" s="6">
-        <v>3.44719E-4</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3.98222E-4</v>
-      </c>
-      <c r="D23" s="6">
-        <v>3.5826400000000001E-4</v>
-      </c>
-      <c r="E23" s="7">
-        <f t="shared" ref="E23:E26" si="2">(B23+C23+D23)/3</f>
-        <v>3.6706833333333334E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
-        <f t="shared" ref="A24:A26" si="3">A23*2</f>
-        <v>4000000</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2.2620100000000001E-4</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3.9280400000000002E-4</v>
-      </c>
-      <c r="D25" s="17">
-        <v>4.4088900000000003E-4</v>
-      </c>
-      <c r="E25" s="7">
-        <f t="shared" si="2"/>
-        <v>3.5329799999999999E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
-        <f t="shared" si="3"/>
-        <v>20000000</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>8</v>
+      <c r="B31" s="13">
+        <v>1.3748100000000001E-4</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1.09714E-4</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1.4696300000000001E-4</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="7"/>
+        <v>1.3138600000000002E-4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="B32" s="6">
-        <v>1.17841E-4</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1.02265E-4</v>
-      </c>
-      <c r="D32" s="17">
-        <v>1.2190500000000001E-4</v>
-      </c>
-      <c r="E32" s="7">
-        <f>(B32+C32+D32)/3</f>
-        <v>1.1400366666666668E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
-        <f>A32*2</f>
-        <v>2000000</v>
-      </c>
-      <c r="B33" s="6">
-        <v>1.32063E-4</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1.4019E-4</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1.4696300000000001E-4</v>
-      </c>
-      <c r="E33" s="7">
-        <f t="shared" ref="E33:E36" si="4">(B33+C33+D33)/3</f>
-        <v>1.3973866666666665E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
-        <f t="shared" ref="A34:A36" si="5">A33*2</f>
-        <v>4000000</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="B35" s="6">
-        <v>2.35682E-4</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1.53058E-4</v>
-      </c>
-      <c r="D35" s="17">
-        <v>2.32296E-4</v>
-      </c>
-      <c r="E35" s="7">
-        <f t="shared" si="4"/>
-        <v>2.0701199999999999E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
-        <f t="shared" si="5"/>
-        <v>20000000</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="A32" s="2">
+        <f>A31*2</f>
+        <v>8000000</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1.21227E-4</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1.2325899999999999E-4</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1.23936E-4</v>
+      </c>
+      <c r="E32" s="16">
+        <f t="shared" si="7"/>
+        <v>1.2280733333333333E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D3:D5 F3:F5" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>